--- a/myapp/files/9_MethodComparePercent/Scenario 285.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 285.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2442</v>
+        <v>15660</v>
       </c>
       <c r="F2" t="n">
-        <v>2.03834628515146</v>
+        <v>2.83456870570986</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.53846153846154</v>
+        <v>1.87265917602996</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4153</v>
+        <v>22648</v>
       </c>
       <c r="F3" t="n">
-        <v>3.46652421057903</v>
+        <v>4.09944521372395</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.07692307692308</v>
+        <v>3.37078651685393</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>7092</v>
+        <v>19535</v>
       </c>
       <c r="F4" t="n">
-        <v>5.91971820405165</v>
+        <v>3.53597060447268</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>4.61538461538462</v>
+        <v>2.62172284644195</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>2673</v>
+        <v>14543</v>
       </c>
       <c r="F5" t="n">
-        <v>2.23116282563876</v>
+        <v>2.63238395192456</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.53846153846154</v>
+        <v>1.49812734082397</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>3297</v>
+        <v>8313</v>
       </c>
       <c r="F6" t="n">
-        <v>2.75201789604601</v>
+        <v>1.50471070565556</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.07692307692308</v>
+        <v>1.12359550561798</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>10553</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.91016625487587</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.49812734082397</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>19020</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.44275202954033</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.37078651685393</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>3065</v>
+        <v>19529</v>
       </c>
       <c r="F9" t="n">
-        <v>2.55836665192024</v>
+        <v>3.53488456282298</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>6.15384615384615</v>
+        <v>4.11985018726592</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>1643</v>
+        <v>11523</v>
       </c>
       <c r="F10" t="n">
-        <v>1.3714180780114</v>
+        <v>2.0857429882436</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>4.61538461538462</v>
+        <v>3.37078651685393</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1085</v>
+        <v>5502</v>
       </c>
       <c r="F11" t="n">
-        <v>0.905653447743379</v>
+        <v>0.995900192772393</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.53846153846154</v>
+        <v>1.49812734082397</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>1350</v>
+        <v>9155</v>
       </c>
       <c r="F12" t="n">
-        <v>1.12684991193877</v>
+        <v>1.65711855049641</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.53846153846154</v>
+        <v>1.87265917602996</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>11686</v>
+        <v>34832</v>
       </c>
       <c r="F13" t="n">
-        <v>9.75434671919735</v>
+        <v>6.30483379037586</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>6.15384615384615</v>
+        <v>4.8689138576779</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>18565</v>
+        <v>44175</v>
       </c>
       <c r="F14" t="n">
-        <v>15.4962730482542</v>
+        <v>7.99598164589612</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
@@ -1049,10 +1049,10 @@
         <v>7.04225352112676</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
-        <v>7.69230769230769</v>
+        <v>7.11610486891386</v>
       </c>
       <c r="K14" t="n">
         <v>6</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>9859</v>
+        <v>29217</v>
       </c>
       <c r="F15" t="n">
-        <v>8.22934317170689</v>
+        <v>5.28847981320084</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J15" t="n">
-        <v>10.7692307692308</v>
+        <v>7.11610486891386</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>7466</v>
+        <v>21357</v>
       </c>
       <c r="F16" t="n">
-        <v>6.23189736484061</v>
+        <v>3.86576525209742</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.61538461538462</v>
+        <v>2.99625468164794</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>11047</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.99958368403428</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.24719101123596</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>7508</v>
+        <v>38518</v>
       </c>
       <c r="F18" t="n">
-        <v>6.26695491765649</v>
+        <v>6.97202537717321</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>4.61538461538462</v>
+        <v>5.2434456928839</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>10494</v>
+        <v>54837</v>
       </c>
       <c r="F19" t="n">
-        <v>8.75937998213734</v>
+        <v>9.92587765740816</v>
       </c>
       <c r="G19" t="n">
         <v>18</v>
@@ -1239,10 +1239,10 @@
         <v>25.3521126760563</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J19" t="n">
-        <v>4.61538461538462</v>
+        <v>9.36329588014981</v>
       </c>
       <c r="K19" t="n">
         <v>8</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>7220</v>
+        <v>46096</v>
       </c>
       <c r="F20" t="n">
-        <v>6.02656026977622</v>
+        <v>8.34369598074086</v>
       </c>
       <c r="G20" t="n">
         <v>21</v>
@@ -1277,10 +1277,10 @@
         <v>29.5774647887324</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
-        <v>7.69230769230769</v>
+        <v>9.36329588014981</v>
       </c>
       <c r="K20" t="n">
         <v>6</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>7371</v>
+        <v>29612</v>
       </c>
       <c r="F21" t="n">
-        <v>6.15260051918566</v>
+        <v>5.35997755513924</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J21" t="n">
-        <v>7.69230769230769</v>
+        <v>5.99250936329588</v>
       </c>
       <c r="K21" t="n">
         <v>6</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2108</v>
+        <v>7190</v>
       </c>
       <c r="F22" t="n">
-        <v>1.75955526990142</v>
+        <v>1.30143991022056</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.07692307692308</v>
+        <v>1.49812734082397</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2250</v>
+        <v>16435</v>
       </c>
       <c r="F23" t="n">
-        <v>1.87808318656461</v>
+        <v>2.97484908546243</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,16 +1391,16 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I23" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.62172284644195</v>
+      </c>
+      <c r="K23" t="n">
         <v>2</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.07692307692308</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3</v>
-      </c>
       <c r="L23" t="n">
-        <v>4.22535211267606</v>
+        <v>2.8169014084507</v>
       </c>
     </row>
     <row r="24">
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1620</v>
+        <v>21617</v>
       </c>
       <c r="F24" t="n">
-        <v>1.35221989432652</v>
+        <v>3.91282705691763</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1429,10 +1429,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>1.53846153846154</v>
+        <v>4.8689138576779</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2106</v>
+        <v>21713</v>
       </c>
       <c r="F25" t="n">
-        <v>1.75788586262448</v>
+        <v>3.93020372331279</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1467,10 +1467,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J25" t="n">
-        <v>4.61538461538462</v>
+        <v>5.61797752808989</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>4750</v>
+        <v>19838</v>
       </c>
       <c r="F26" t="n">
-        <v>3.96484228274751</v>
+        <v>3.59081570778239</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1505,10 +1505,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
-        <v>6.15384615384615</v>
+        <v>4.8689138576779</v>
       </c>
       <c r="K26" t="n">
         <v>5</v>
